--- a/_draft/_memo/_bookList.xlsx
+++ b/_draft/_memo/_bookList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="278">
   <si>
     <t>2016-06-23-A-Great-Revolution-In-The-Brain-World-2_O.txt</t>
   </si>
@@ -870,110 +870,115 @@
     <t>TaeAm-Remedy-Manual.txt</t>
   </si>
   <si>
+    <t>KM-Clinical-Treasure_BaeWonSik.txt</t>
+  </si>
+  <si>
+    <t>Clinical-Important-Medicine.txt</t>
+  </si>
+  <si>
+    <t>파일명(txt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림파일(zip)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-06-23-Musles-Testing-And-Function-with-Posture-and-Pain.txt</t>
+  </si>
+  <si>
+    <t>Musles-Testing-And-Function-with-Posture-and-Pain.txt</t>
+  </si>
+  <si>
+    <t>2016-06-23-A-Great-Revolution-In-The-Brain-World-1.txt</t>
+  </si>
+  <si>
+    <t>A-Great-Revolution-In-The-Brain-World-1.txt</t>
+  </si>
+  <si>
+    <t>2016-06-23-A-Great-Revolution-In-The-Brain-World-2.txt</t>
+  </si>
+  <si>
+    <t>A-Great-Revolution-In-The-Brain-World-2.txt</t>
+  </si>
+  <si>
+    <t>2016-06-23-A-Great-Revolution-In-The-Brain-World-3.txt</t>
+  </si>
+  <si>
+    <t>A-Great-Revolution-In-The-Brain-World-3.txt</t>
+  </si>
+  <si>
+    <t>2016-06-23-Pain-Free.txt</t>
+  </si>
+  <si>
+    <t>Pain-Free.txt</t>
+  </si>
+  <si>
+    <t>2016-06-23-Healing-Back-Pain.txt</t>
+  </si>
+  <si>
+    <t>2016-06-24-Ungok-Herbal-Medicine.txt</t>
+  </si>
+  <si>
+    <t>Ungok-Herbal-Medicine.txt</t>
+  </si>
+  <si>
+    <t>최신 임상한방의학_미즈노슈이치_신흥메드싸이언스_2009_축소.zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Healing-Back-Pain.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한방여성의학2_한방여성의학 편찬위원회_정담_2007_축소</t>
+  </si>
+  <si>
+    <t>한방여성의학1_한방여성의학 편찬위원회_정담_2007_축소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textbook-Femal-Medicine_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textbook-Internal-Medicine-Lung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동의폐계내과학_전국한의과대학 폐계내과학교실_나도_2007_축소</t>
+  </si>
+  <si>
+    <t>Textbook-Femal-Medicine_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소아과학_김덕곤 등_정담_2002_축소</t>
+  </si>
+  <si>
+    <t>Textbook-Pediatrics</t>
+  </si>
+  <si>
+    <t>동의신계학(상)__두호경_성보사_1993_축소</t>
+  </si>
+  <si>
+    <t>Textbook-Internal-Medicine-Kidney_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textbook-Internal-Medicine-Kidney_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동의신계학(하)__두호경_성보사_1993_축소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Korean-Medical-Food-Therapy.txt</t>
-  </si>
-  <si>
-    <t>KM-Clinical-Treasure_BaeWonSik.txt</t>
-  </si>
-  <si>
-    <t>Clinical-Important-Medicine.txt</t>
-  </si>
-  <si>
-    <t>파일명(txt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림파일(zip)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-06-23-Musles-Testing-And-Function-with-Posture-and-Pain.txt</t>
-  </si>
-  <si>
-    <t>Musles-Testing-And-Function-with-Posture-and-Pain.txt</t>
-  </si>
-  <si>
-    <t>2016-06-23-A-Great-Revolution-In-The-Brain-World-1.txt</t>
-  </si>
-  <si>
-    <t>A-Great-Revolution-In-The-Brain-World-1.txt</t>
-  </si>
-  <si>
-    <t>2016-06-23-A-Great-Revolution-In-The-Brain-World-2.txt</t>
-  </si>
-  <si>
-    <t>A-Great-Revolution-In-The-Brain-World-2.txt</t>
-  </si>
-  <si>
-    <t>2016-06-23-A-Great-Revolution-In-The-Brain-World-3.txt</t>
-  </si>
-  <si>
-    <t>A-Great-Revolution-In-The-Brain-World-3.txt</t>
-  </si>
-  <si>
-    <t>2016-06-23-Pain-Free.txt</t>
-  </si>
-  <si>
-    <t>Pain-Free.txt</t>
-  </si>
-  <si>
-    <t>2016-06-23-Healing-Back-Pain.txt</t>
-  </si>
-  <si>
-    <t>2016-06-24-Ungok-Herbal-Medicine.txt</t>
-  </si>
-  <si>
-    <t>Ungok-Herbal-Medicine.txt</t>
-  </si>
-  <si>
-    <t>최신 임상한방의학_미즈노슈이치_신흥메드싸이언스_2009_축소.zip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Healing-Back-Pain.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한방여성의학2_한방여성의학 편찬위원회_정담_2007_축소</t>
-  </si>
-  <si>
-    <t>한방여성의학1_한방여성의학 편찬위원회_정담_2007_축소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Textbook-Femal-Medicine_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Textbook-Internal-Medicine-Lung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동의폐계내과학_전국한의과대학 폐계내과학교실_나도_2007_축소</t>
-  </si>
-  <si>
-    <t>Textbook-Femal-Medicine_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소아과학_김덕곤 등_정담_2002_축소</t>
-  </si>
-  <si>
-    <t>Textbook-Pediatrics</t>
-  </si>
-  <si>
-    <t>동의신계학(상)__두호경_성보사_1993_축소</t>
-  </si>
-  <si>
-    <t>Textbook-Internal-Medicine-Kidney_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Textbook-Internal-Medicine-Kidney_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동의신계학(하)__두호경_성보사_1993_축소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한방 음식요법_전재우_여강출판사_2007_축소.zip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,11 +1323,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1345,10 +1350,10 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" t="s">
         <v>248</v>
-      </c>
-      <c r="D1" t="s">
-        <v>249</v>
       </c>
       <c r="E1" t="s">
         <v>44</v>
@@ -1406,10 +1411,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s">
         <v>250</v>
-      </c>
-      <c r="C3" t="s">
-        <v>251</v>
       </c>
       <c r="D3" t="s">
         <v>175</v>
@@ -1528,10 +1533,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" t="s">
         <v>252</v>
-      </c>
-      <c r="C7" t="s">
-        <v>253</v>
       </c>
       <c r="D7" t="s">
         <v>179</v>
@@ -1566,10 +1571,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
         <v>254</v>
-      </c>
-      <c r="C8" t="s">
-        <v>255</v>
       </c>
       <c r="D8" t="s">
         <v>180</v>
@@ -1604,10 +1609,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" t="s">
         <v>256</v>
-      </c>
-      <c r="C9" t="s">
-        <v>257</v>
       </c>
       <c r="D9" t="s">
         <v>181</v>
@@ -2013,7 +2018,7 @@
         <v>243</v>
       </c>
       <c r="D23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E23" t="s">
         <v>119</v>
@@ -2033,10 +2038,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" t="s">
         <v>258</v>
-      </c>
-      <c r="C24" t="s">
-        <v>259</v>
       </c>
       <c r="D24" t="s">
         <v>206</v>
@@ -2071,10 +2076,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>207</v>
@@ -2112,10 +2117,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="E26" t="s">
         <v>152</v>
@@ -2144,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D27" t="s">
         <v>209</v>
@@ -2232,7 +2237,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E32" t="s">
         <v>112</v>
@@ -2464,10 +2469,10 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" t="s">
         <v>261</v>
-      </c>
-      <c r="C43" t="s">
-        <v>262</v>
       </c>
       <c r="E43" t="s">
         <v>48</v>
@@ -2562,7 +2567,7 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E47" t="s">
         <v>52</v>
@@ -2576,50 +2581,50 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" t="s">
         <v>268</v>
-      </c>
-      <c r="D50" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" t="s">
         <v>275</v>
-      </c>
-      <c r="D53" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2637,7 +2642,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C26"/>
     </sheetView>
   </sheetViews>
